--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,6 +434,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -445,6 +448,9 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -456,6 +462,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -466,6 +475,9 @@
       </c>
       <c r="C5" t="s">
         <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>ساعت 10 تا 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از 11 تا  7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">از 10 تا 4 </t>
+  </si>
+  <si>
+    <t>از 12 تا 6 و 8 تا 10 شب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از 10 تا 2 و از 5 تا 9 </t>
+  </si>
+  <si>
+    <t>از 2 ظهر تا 8 شب</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,8 +449,8 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -448,8 +463,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -462,8 +477,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>6</v>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -476,8 +491,8 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -490,6 +505,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -500,6 +518,9 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -75,7 +75,13 @@
     <t xml:space="preserve">از 10 تا 2 و از 5 تا 9 </t>
   </si>
   <si>
-    <t>از 2 ظهر تا 8 شب</t>
+    <t xml:space="preserve">از 3 </t>
+  </si>
+  <si>
+    <t>از 2 ظهر تا 5 شب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از 3 بعد از ظهر تا </t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -532,6 +538,9 @@
       </c>
       <c r="C8" t="s">
         <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -60,9 +60,6 @@
     <t>ساعت 10 تا 5</t>
   </si>
   <si>
-    <t>ساعت 10 تا 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">از 11 تا  7 </t>
   </si>
   <si>
@@ -75,13 +72,25 @@
     <t xml:space="preserve">از 10 تا 2 و از 5 تا 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">از 3 </t>
-  </si>
-  <si>
-    <t>از 2 ظهر تا 5 شب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">از 3 بعد از ظهر تا </t>
+    <t>از 3 بعد از ظهر تا 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از 10 صبح تا 3 بعد از ظهر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه شنبه </t>
+  </si>
+  <si>
+    <t>ساعت 10 تا 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ساعت 12 تا 6 بعد از ظهر </t>
+  </si>
+  <si>
+    <t>از 2 ظهر تا 5 عصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ساعت 4 ظهر تا 10 شب </t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -470,7 +479,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -484,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,7 +507,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -526,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -540,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,6 +562,9 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -562,7 +574,24 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>990911</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t xml:space="preserve">از ساعت 4 ظهر تا 10 شب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">چهارشنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنجشنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمعه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 11 تا 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ساعت 11 تا 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 6 عصر تا 8 شب </t>
+  </si>
+  <si>
+    <t>از ساعت 6 عصر تا 8 شب</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -427,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,6 +618,48 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>990912</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>990913</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>990914</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 4 بعد از ظهر تا 10 شب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 8 صبح تا 2 ظهر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 10 صبح تا 4 بعد از ظهر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموع </t>
   </si>
 </sst>
 </file>
@@ -451,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +479,7 @@
     <col min="3" max="4" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>990902</v>
       </c>
@@ -491,8 +509,11 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>990903</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>990904</v>
       </c>
@@ -519,8 +543,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>990905</v>
       </c>
@@ -533,8 +560,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>990906</v>
       </c>
@@ -547,8 +577,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>990907</v>
       </c>
@@ -561,8 +594,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>990908</v>
       </c>
@@ -575,8 +611,11 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>990909</v>
       </c>
@@ -589,8 +628,11 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>990910</v>
       </c>
@@ -603,8 +645,11 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>990911</v>
       </c>
@@ -617,8 +662,11 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>990912</v>
       </c>
@@ -631,8 +679,11 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>990913</v>
       </c>
@@ -645,8 +696,11 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>990914</v>
       </c>
@@ -654,10 +708,47 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>990915</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>990916</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59057FBA-3E98-490B-9828-D8C8E8EF8967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -130,12 +131,51 @@
   </si>
   <si>
     <t xml:space="preserve">مجموع </t>
+  </si>
+  <si>
+    <t>پنج شنبه</t>
+  </si>
+  <si>
+    <t>بکشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ساعت 10 تا 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 تا 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 تا 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 تا2 </t>
+  </si>
+  <si>
+    <t>10 تا 2</t>
+  </si>
+  <si>
+    <t>9 تا 4</t>
+  </si>
+  <si>
+    <t>9 تا 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 تا 9 </t>
+  </si>
+  <si>
+    <t>10 تا 6</t>
+  </si>
+  <si>
+    <t>10 تا 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 تا 8 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,21 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>990902</v>
       </c>
@@ -513,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>990903</v>
       </c>
@@ -530,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>990904</v>
       </c>
@@ -547,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>990905</v>
       </c>
@@ -564,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>990906</v>
       </c>
@@ -581,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>990907</v>
       </c>
@@ -598,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>990908</v>
       </c>
@@ -615,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>990909</v>
       </c>
@@ -632,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>990910</v>
       </c>
@@ -649,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>990911</v>
       </c>
@@ -666,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>990912</v>
       </c>
@@ -683,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>990913</v>
       </c>
@@ -700,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>990914</v>
       </c>
@@ -717,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>990915</v>
       </c>
@@ -734,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>990916</v>
       </c>
@@ -749,6 +789,125 @@
       </c>
       <c r="E16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>990917</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>990918</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>990919</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>990920</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>990921</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>990922</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>990923</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59057FBA-3E98-490B-9828-D8C8E8EF8967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940AA27-6DE4-4EAB-A388-4494A8DDD745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">10 تا 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 تا 4 </t>
   </si>
 </sst>
 </file>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,6 +913,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>990924</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>990925</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940AA27-6DE4-4EAB-A388-4494A8DDD745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E299BC1-2B27-4DC2-83E2-88A9157060E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">9 تا 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9تا 6 </t>
+  </si>
+  <si>
+    <t>9 تا 6</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,6 +953,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>990926</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>990927</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E299BC1-2B27-4DC2-83E2-88A9157060E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A8084-0DD7-4F36-9441-F3B1123EC81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,6 +980,29 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>990928</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A8084-0DD7-4F36-9441-F3B1123EC81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7EC7C-B357-4C47-8C22-DE7B38B8F7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>9 تا 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 تا 4 </t>
+  </si>
+  <si>
+    <t>8تا 12</t>
+  </si>
+  <si>
+    <t>10 تا 18</t>
+  </si>
+  <si>
+    <t>9 تا 15</t>
+  </si>
+  <si>
+    <t>14 تا 20</t>
   </si>
 </sst>
 </file>
@@ -515,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1019,150 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>990929</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>990930</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>991001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>991002</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>991003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>991004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>991005</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>991006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>991007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7EC7C-B357-4C47-8C22-DE7B38B8F7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB531FF-EE02-45A8-A0B2-782BC5FCAF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -194,13 +200,16 @@
   </si>
   <si>
     <t>14 تا 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 تا 3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +223,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,8 +1177,166 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>991008</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>991009</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>991010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>991011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>991012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <f>-D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>991013</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>991014</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>991015</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>991016</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB531FF-EE02-45A8-A0B2-782BC5FCAF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC038B7-3202-45D0-8FC4-5FE1AE9E48E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -203,6 +203,27 @@
   </si>
   <si>
     <t xml:space="preserve">9 تا 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 9 تا 5 </t>
+  </si>
+  <si>
+    <t>ساعت 9 تا 2</t>
+  </si>
+  <si>
+    <t>ساعت 9 تا 3</t>
+  </si>
+  <si>
+    <t>ساعت 9 تا 4</t>
+  </si>
+  <si>
+    <t>ساعت 9 تا2</t>
+  </si>
+  <si>
+    <t>ساعت 9 تا 12</t>
+  </si>
+  <si>
+    <t>ساعت 9 تا 6 عصر</t>
   </si>
 </sst>
 </file>
@@ -545,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,9 +1289,8 @@
       <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="E42">
-        <f>-D50</f>
-        <v>0</v>
+      <c r="E42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,7 +1352,242 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>991017</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>991018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>991019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>991020</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>991021</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>991022</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>991023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>991024</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>991025</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>991026</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>991027</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>991028</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>991029</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>991030</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC038B7-3202-45D0-8FC4-5FE1AE9E48E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCE6E9-B18A-489B-A936-7574DC89820E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>ساعت 9 تا 6 عصر</t>
+  </si>
+  <si>
+    <t>9 تا 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت 9 تا 14 </t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,10 +1587,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
         <v>31</v>

--- a/WeeklyHoursReport.xlsx
+++ b/WeeklyHoursReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCE6E9-B18A-489B-A936-7574DC89820E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE399DC0-8E29-43FD-8073-8ACBA7738242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="70">
   <si>
     <t xml:space="preserve">تاریخ </t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t xml:space="preserve">ساعت 9 تا 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9تا 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 تا 14 </t>
   </si>
 </sst>
 </file>
@@ -572,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,6 +1602,402 @@
         <v>31</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>991101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>991102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>991103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>991104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>991105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>991106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>991107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>991108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>991109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>991110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>991111</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>991112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>991113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>991114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>991115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>991116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>991117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>991118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>991119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>991120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>991121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>991122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>991123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>991124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>991125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>991126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>991127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>991128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>991129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>991130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
